--- a/5_Profiling/Termometre_num.xlsx
+++ b/5_Profiling/Termometre_num.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barre\Documents\UPC\GIA\Q3\MEstadistica\spotify\PMAAD\4_Clustering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barre\Documents\UPC\GIA\Q3\MEstadistica\spotify\PMAAD\5_Profiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E30717-7C69-4635-B70E-12CCE11F5DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD539F1-40B1-41E3-B862-676CB39F5E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{1023ED90-EE05-4AE6-9B5D-7BD74C7C65F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>track_popularity</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>loudness</t>
+  </si>
+  <si>
+    <t>artist_num</t>
   </si>
 </sst>
 </file>
@@ -149,13 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +477,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -494,7 +498,7 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -532,67 +536,67 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>105000000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>60000000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>30000000</v>
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>105000000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70000000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30000000</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>0.85</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>0.65</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -600,50 +604,50 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-4.5</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>-23.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C9">
-        <v>0.11</v>
+        <v>-4.5</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>-7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-23.023</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -651,16 +655,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
         <v>0.2</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -668,16 +672,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -685,57 +689,71 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>140</v>
+        <v>0.6</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>461</v>
+        <v>206</v>
       </c>
       <c r="C14">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>461</v>
+      </c>
+      <c r="C15">
+        <v>220</v>
+      </c>
+      <c r="D15">
+        <v>180</v>
+      </c>
+      <c r="E15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <v>81000000</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>20000000</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>10000000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>8000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
